--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aishs\OneDrive\Documents\ThirdSem\CloudComputing\HW3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aishs\OneDrive\Documents\ThirdSem\CloudComputing\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB22264-345D-4DF5-B612-A4F17F73B512}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09145840-0676-4973-9631-B0991E284C2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{58F2B343-3D9D-4F9A-89B5-2789155C2784}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Sr. No</t>
   </si>
@@ -45,121 +45,88 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Priority</t>
-  </si>
-  <si>
     <t>Dependency</t>
   </si>
   <si>
     <t>Phase</t>
   </si>
   <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setting up the input to your cloud simulator </t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>R package</t>
-  </si>
-  <si>
-    <t>Sampling probability distributions for input</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Bonus</t>
-  </si>
-  <si>
     <t>Chord</t>
   </si>
   <si>
     <t>Module</t>
   </si>
   <si>
-    <t>DHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creating DHT </t>
-  </si>
-  <si>
-    <t>Hashing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creating Hash function </t>
-  </si>
-  <si>
-    <t>Actor</t>
-  </si>
-  <si>
     <t>Create Actor</t>
   </si>
   <si>
-    <t>Create Actor to simulate user</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Finger Table</t>
-  </si>
-  <si>
-    <t>Create finger table</t>
-  </si>
-  <si>
-    <t>Successor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find successor </t>
-  </si>
-  <si>
-    <t>Predecessor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find predecessor </t>
-  </si>
-  <si>
-    <t>Algorithm</t>
-  </si>
-  <si>
-    <t>Request forward</t>
-  </si>
-  <si>
-    <t>Check if present otherwise forwards the request to user</t>
-  </si>
-  <si>
-    <t>Typed implementation</t>
-  </si>
-  <si>
-    <t>Typed Akka Behaviors model</t>
-  </si>
-  <si>
-    <t>Akka persistence with Cassandra</t>
-  </si>
-  <si>
-    <t>Documentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User-level manual </t>
-  </si>
-  <si>
-    <t>HW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YAML format </t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>Step-by-step commands</t>
+    <t>Bootstrap</t>
+  </si>
+  <si>
+    <t>find the IP address of an existing CAN nodes</t>
+  </si>
+  <si>
+    <t>Create Actor to simulate bootstrap node</t>
+  </si>
+  <si>
+    <t>Fault tolerance</t>
+  </si>
+  <si>
+    <t>Node join &amp; depart - Finger table update</t>
+  </si>
+  <si>
+    <t>Node join &amp; depart - Key transfer</t>
+  </si>
+  <si>
+    <t>Randomly select one element from CAN nodes</t>
+  </si>
+  <si>
+    <t>C using Rand</t>
+  </si>
+  <si>
+    <t>P using Rand</t>
+  </si>
+  <si>
+    <t>Randomly select 1 x point &amp; 1 y point</t>
+  </si>
+  <si>
+    <t>Find zone</t>
+  </si>
+  <si>
+    <t>Route to P using C</t>
+  </si>
+  <si>
+    <t>Get zone</t>
+  </si>
+  <si>
+    <t>Divide existing zone in 2 parts</t>
+  </si>
+  <si>
+    <t>Update local neighbours</t>
+  </si>
+  <si>
+    <t>Join routing</t>
+  </si>
+  <si>
+    <t>Update neighbours</t>
+  </si>
+  <si>
+    <t>Node departure</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>Periodic status updates</t>
+  </si>
+  <si>
+    <t>Assign node to neighbour</t>
+  </si>
+  <si>
+    <t>CAN construction</t>
   </si>
 </sst>
 </file>
@@ -549,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D5E162-E445-4D60-BC91-EABEF17FB5EE}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,19 +527,18 @@
     <col min="1" max="1" width="6.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.21875" style="2"/>
+    <col min="4" max="4" width="39.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -586,11 +552,8 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -598,22 +561,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -621,206 +581,179 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="3">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -828,65 +761,36 @@
         <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="3">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
